--- a/ValueSet-SzClinicalObservationCodesVS.xlsx
+++ b/ValueSet-SzClinicalObservationCodesVS.xlsx
@@ -9,12 +9,13 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
     <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T15:13:38+00:00</t>
+    <t>2025-09-10T08:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -110,6 +111,12 @@
   </si>
   <si>
     <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>47241-5</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Codes</t>
@@ -444,13 +451,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -465,7 +476,50 @@
         <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
         <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-SzClinicalObservationCodesVS.xlsx
+++ b/ValueSet-SzClinicalObservationCodesVS.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T08:40:27+00:00</t>
+    <t>2025-09-10T10:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SzClinicalObservationCodesVS.xlsx
+++ b/ValueSet-SzClinicalObservationCodesVS.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:05:20+00:00</t>
+    <t>2025-09-19T08:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
